--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44386,6 +44386,41 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44421,6 +44421,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44458,6 +44458,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44493,6 +44493,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44528,6 +44528,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44563,6 +44563,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44598,6 +44598,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44635,6 +44635,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44672,6 +44672,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44707,6 +44707,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44781,6 +44781,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44818,6 +44818,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44855,6 +44855,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44890,6 +44890,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44925,6 +44925,78 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44997,6 +44997,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45034,6 +45034,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80771,6 +80771,41 @@
         </is>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80806,6 +80806,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80841,6 +80841,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80878,6 +80878,43 @@
         </is>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80915,6 +80915,43 @@
         </is>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80952,6 +80952,43 @@
         </is>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80989,6 +80989,41 @@
         </is>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>150100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81024,6 +81024,41 @@
         <v>150100</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>191400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81059,6 +81059,41 @@
         <v>191400</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>773000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81094,6 +81094,41 @@
         <v>773000</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>49000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81129,6 +81129,41 @@
         <v>49000</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81164,6 +81164,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>226400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81199,6 +81199,41 @@
         <v>226400</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7163.xlsx
+++ b/data/7163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81234,6 +81234,43 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>PJBUMI</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
